--- a/Final Project/data/Data Dictionary.xlsx
+++ b/Final Project/data/Data Dictionary.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1263,31 +1263,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1620,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1635,908 +1611,1447 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <f>MID(C1,2,3)</f>
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+    </row>
+    <row r="2" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="str">
-        <f>MID(C1,2,3)</f>
+      <c r="B2" s="4" t="str">
+        <f>MID(C2,2,3)</f>
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1">
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-    </row>
-    <row r="2" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="str">
-        <f>MID(C2,2,3)</f>
+      <c r="B3" s="3" t="str">
+        <f>MID(C3,2,3)</f>
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+    </row>
+    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f>MID(C4,2,3)</f>
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f>MID(C5,2,3)</f>
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f>MID(C6,2,3)</f>
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+    </row>
+    <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f>MID(C7,2,3)</f>
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+    </row>
+    <row r="8" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f>MID(C8,2,3)</f>
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="str">
-        <f>MID(C3,2,3)</f>
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="1">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="str">
-        <f>MID(C4,2,3)</f>
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>22</v>
-      </c>
-      <c r="B5" s="4" t="str">
-        <f>MID(C5,2,3)</f>
-        <v>151</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>36</v>
-      </c>
-      <c r="B6" s="4" t="str">
-        <f>MID(C6,2,3)</f>
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1">
-        <v>6</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>37</v>
-      </c>
-      <c r="B7" s="4" t="str">
-        <f>MID(C7,2,3)</f>
+      <c r="F8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>42</v>
-      </c>
-      <c r="B8" s="4" t="str">
-        <f>MID(C8,2,3)</f>
-        <v>31</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>370</v>
-      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
     </row>
     <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="str">
         <f>MID(C9,2,3)</f>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>131</v>
+        <v>27</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="str">
         <f>MID(C10,2,3)</f>
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f>MID(C11,2,3)</f>
+        <v>75</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+    </row>
+    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f>MID(C12,2,3)</f>
+        <v>132</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+    </row>
+    <row r="13" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f>MID(C13,2,3)</f>
+        <v>134</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+    </row>
+    <row r="14" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f>MID(C14,2,3)</f>
+        <v>136</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+    </row>
+    <row r="15" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f>MID(C15,2,3)</f>
+        <v>138</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+    </row>
+    <row r="16" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f>MID(C16,2,3)</f>
+        <v>139</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+    </row>
+    <row r="17" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f>MID(C17,2,3)</f>
+        <v>140</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+    </row>
+    <row r="18" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f>MID(C18,2,3)</f>
+        <v>141</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+    </row>
+    <row r="19" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f>MID(C19,2,3)</f>
+        <v>144</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+    </row>
+    <row r="20" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f>MID(C20,2,3)</f>
+        <v>145</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+    </row>
+    <row r="21" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f>MID(C21,2,3)</f>
+        <v>147</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+    </row>
+    <row r="22" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1">
-        <v>6</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>92</v>
-      </c>
-      <c r="B11" s="4" t="str">
-        <f>MID(C11,2,3)</f>
-        <v>76</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>93</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f>MID(C12,2,3)</f>
-        <v>250</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>104</v>
-      </c>
-      <c r="B13" s="4" t="str">
-        <f>MID(C13,2,3)</f>
-        <v>50</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>106</v>
-      </c>
-      <c r="B14" s="4" t="str">
-        <f>MID(C14,2,3)</f>
+      <c r="B22" s="3" t="str">
+        <f>MID(C22,2,3)</f>
+        <v>149</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="1">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>107</v>
-      </c>
-      <c r="B15" s="4" t="str">
-        <f>MID(C15,2,3)</f>
-        <v>54</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="1">
-        <v>3</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>108</v>
-      </c>
-      <c r="B16" s="4" t="str">
-        <f>MID(C16,2,3)</f>
-        <v>55</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="1">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>109</v>
-      </c>
-      <c r="B17" s="4" t="str">
-        <f>MID(C17,2,3)</f>
-        <v>56</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="1">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>121</v>
-      </c>
-      <c r="B18" s="4" t="str">
-        <f>MID(C18,2,3)</f>
-        <v>130</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1">
-        <v>20</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>141</v>
-      </c>
-      <c r="B19" s="4" t="str">
-        <f>MID(C19,2,3)</f>
-        <v>40</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1">
-        <v>20</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>144</v>
-      </c>
-      <c r="B20" s="4" t="str">
-        <f>MID(C20,2,3)</f>
-        <v>48</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="1">
-        <v>20</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>146</v>
-      </c>
-      <c r="B21" s="4" t="str">
-        <f>MID(C21,2,3)</f>
-        <v>77</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="1">
-        <v>20</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>147</v>
-      </c>
-      <c r="B22" s="4" t="str">
-        <f>MID(C22,2,3)</f>
-        <v>79</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1">
-        <v>20</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+    </row>
+    <row r="23" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="str">
         <f>MID(C23,2,3)</f>
+        <v>151</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="str">
+        <f>MID(C24,2,3)</f>
+        <v>152</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+    </row>
+    <row r="25" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="str">
+        <f>MID(C25,2,3)</f>
+        <v>153</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+    </row>
+    <row r="26" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="str">
+        <f>MID(C26,2,3)</f>
+        <v>155</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+    </row>
+    <row r="27" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="str">
+        <f>MID(C27,2,3)</f>
+        <v>157</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+    </row>
+    <row r="28" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="str">
+        <f>MID(C28,2,3)</f>
+        <v>160</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+    </row>
+    <row r="29" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="str">
+        <f>MID(C29,2,3)</f>
+        <v>162</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+    </row>
+    <row r="30" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="str">
+        <f>MID(C30,2,3)</f>
+        <v>203</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2">
+        <v>6</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+    </row>
+    <row r="31" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="str">
+        <f>MID(C31,2,3)</f>
+        <v>204</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+    </row>
+    <row r="32" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="str">
+        <f>MID(C32,2,3)</f>
+        <v>214</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+    </row>
+    <row r="33" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="str">
+        <f>MID(C33,2,3)</f>
+        <v>233</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+    </row>
+    <row r="34" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="str">
+        <f>MID(C34,2,3)</f>
+        <v>234</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+    </row>
+    <row r="35" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="str">
+        <f>MID(C35,2,3)</f>
+        <v>790</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+    </row>
+    <row r="36" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="str">
+        <f>MID(C36,2,3)</f>
+        <v>22</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="2">
+        <v>5</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="1">
-        <v>20</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>149</v>
-      </c>
-      <c r="B24" s="4" t="str">
-        <f>MID(C24,2,3)</f>
-        <v>83</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="1">
-        <v>20</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>150</v>
-      </c>
-      <c r="B25" s="4" t="str">
-        <f>MID(C25,2,3)</f>
-        <v>85</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="1">
-        <v>20</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>151</v>
-      </c>
-      <c r="B26" s="4" t="str">
-        <f>MID(C26,2,3)</f>
-        <v>87</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="1">
-        <v>20</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>152</v>
-      </c>
-      <c r="B27" s="4" t="str">
-        <f>MID(C27,2,3)</f>
-        <v>89</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="1">
-        <v>20</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>153</v>
-      </c>
-      <c r="B28" s="4" t="str">
-        <f>MID(C28,2,3)</f>
-        <v>91</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="1">
-        <v>20</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>154</v>
-      </c>
-      <c r="B29" s="4" t="str">
-        <f>MID(C29,2,3)</f>
-        <v>93</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="1">
-        <v>20</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>155</v>
-      </c>
-      <c r="B30" s="4" t="str">
-        <f>MID(C30,2,3)</f>
-        <v>95</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="1">
-        <v>20</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>156</v>
-      </c>
-      <c r="B31" s="4" t="str">
-        <f>MID(C31,2,3)</f>
-        <v>97</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="1">
-        <v>20</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>157</v>
-      </c>
-      <c r="B32" s="4" t="str">
-        <f>MID(C32,2,3)</f>
-        <v>99</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="1">
-        <v>20</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>160</v>
-      </c>
-      <c r="B33" s="4" t="str">
-        <f>MID(C33,2,3)</f>
-        <v>105</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="1">
-        <v>20</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>161</v>
-      </c>
-      <c r="B34" s="4" t="str">
-        <f>MID(C34,2,3)</f>
-        <v>107</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="1">
-        <v>20</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>162</v>
-      </c>
-      <c r="B35" s="4" t="str">
-        <f>MID(C35,2,3)</f>
-        <v>109</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="1">
-        <v>20</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>168</v>
-      </c>
-      <c r="B36" s="4" t="str">
-        <f>MID(C36,2,3)</f>
-        <v>148</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="1">
-        <v>30</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>370</v>
-      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
     </row>
     <row r="37" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4" t="str">
         <f>MID(C37,2,3)</f>
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>347</v>
+        <v>82</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="1">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>377</v>
+        <v>83</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>368</v>
@@ -2547,23 +3062,23 @@
     </row>
     <row r="38" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4" t="str">
         <f>MID(C38,2,3)</f>
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>350</v>
+        <v>84</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="1">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>351</v>
+        <v>85</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>368</v>
@@ -2573,145 +3088,217 @@
       </c>
     </row>
     <row r="39" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>172</v>
-      </c>
-      <c r="B39" s="4" t="str">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="str">
         <f>MID(C39,2,3)</f>
-        <v>158</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="1">
+        <v>25</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="2">
+        <v>6</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+    </row>
+    <row r="40" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="str">
+        <f>MID(C40,2,3)</f>
+        <v>26</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="2">
+        <v>8</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+    </row>
+    <row r="41" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="str">
+        <f>MID(C41,2,3)</f>
+        <v>27</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+    </row>
+    <row r="42" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="str">
+        <f>MID(C42,2,3)</f>
         <v>30</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>173</v>
-      </c>
-      <c r="B40" s="4" t="str">
-        <f>MID(C40,2,3)</f>
-        <v>161</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="1">
-        <v>20</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>174</v>
-      </c>
-      <c r="B41" s="4" t="str">
-        <f>MID(C41,2,3)</f>
-        <v>163</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="1">
-        <v>20</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>175</v>
-      </c>
-      <c r="B42" s="4" t="str">
-        <f>MID(C42,2,3)</f>
-        <v>183</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="1">
-        <v>20</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>359</v>
-      </c>
+      <c r="C42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="2">
+        <v>4</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
     </row>
     <row r="43" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="B43" s="4" t="str">
         <f>MID(C43,2,3)</f>
-        <v>191</v>
+        <v>31</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>360</v>
+        <v>94</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E43" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>361</v>
+        <v>95</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B44" s="3" t="str">
         <f>MID(C44,2,3)</f>
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E44" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="I44" s="2" t="s">
+        <v>378</v>
+      </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -2731,23 +3318,23 @@
     </row>
     <row r="45" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B45" s="3" t="str">
         <f>MID(C45,2,3)</f>
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -2771,23 +3358,23 @@
     </row>
     <row r="46" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B46" s="3" t="str">
         <f>MID(C46,2,3)</f>
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -2811,23 +3398,23 @@
     </row>
     <row r="47" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B47" s="3" t="str">
         <f>MID(C47,2,3)</f>
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -2851,23 +3438,23 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B48" s="3" t="str">
         <f>MID(C48,2,3)</f>
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E48" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -2889,205 +3476,205 @@
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
     </row>
-    <row r="49" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B49" s="3" t="str">
         <f>MID(C49,2,3)</f>
+        <v>37</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="2">
         <v>8</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="2">
-        <v>2</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B50" s="3" t="str">
         <f>MID(C50,2,3)</f>
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B51" s="3" t="str">
         <f>MID(C51,2,3)</f>
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B52" s="3" t="str">
         <f>MID(C52,2,3)</f>
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B53" s="3" t="str">
         <f>MID(C53,2,3)</f>
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B54" s="3" t="str">
         <f>MID(C54,2,3)</f>
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B55" s="3" t="str">
         <f>MID(C55,2,3)</f>
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B56" s="3" t="str">
         <f>MID(C56,2,3)</f>
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B57" s="3" t="str">
         <f>MID(C57,2,3)</f>
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B58" s="3" t="str">
         <f>MID(C58,2,3)</f>
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>9</v>
@@ -3096,109 +3683,141 @@
         <v>4</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B59" s="3" t="str">
         <f>MID(C59,2,3)</f>
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="B60" s="3" t="str">
         <f>MID(C60,2,3)</f>
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E60" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="str">
+        <f>MID(C61,2,3)</f>
+        <v>20</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="1">
+        <v>6</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+    </row>
+    <row r="62" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="str">
+        <f>MID(C62,2,3)</f>
         <v>21</v>
       </c>
-      <c r="B61" s="3" t="str">
-        <f>MID(C61,2,3)</f>
-        <v>149</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="2">
-        <v>1</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <v>23</v>
-      </c>
-      <c r="B62" s="3" t="str">
-        <f>MID(C62,2,3)</f>
-        <v>152</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="2">
-        <v>4</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="1">
+        <v>6</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+    </row>
+    <row r="63" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="B63" s="3" t="str">
         <f>MID(C63,2,3)</f>
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>9</v>
@@ -3207,19 +3826,19 @@
         <v>1</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B64" s="3" t="str">
         <f>MID(C64,2,3)</f>
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>9</v>
@@ -3228,997 +3847,1148 @@
         <v>1</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B65" s="3" t="str">
         <f>MID(C65,2,3)</f>
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E65" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B66" s="3" t="str">
         <f>MID(C66,2,3)</f>
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B67" s="3" t="str">
         <f>MID(C67,2,3)</f>
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E67" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
         <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
-        <v>29</v>
       </c>
       <c r="B68" s="3" t="str">
         <f>MID(C68,2,3)</f>
-        <v>203</v>
+        <v>112</v>
       </c>
       <c r="C68" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="2">
+        <v>4</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
         <v>68</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="2">
-        <v>6</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>30</v>
       </c>
       <c r="B69" s="3" t="str">
         <f>MID(C69,2,3)</f>
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B70" s="3" t="str">
         <f>MID(C70,2,3)</f>
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="B71" s="3" t="str">
         <f>MID(C71,2,3)</f>
-        <v>233</v>
+        <v>115</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B72" s="3" t="str">
         <f>MID(C72,2,3)</f>
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E72" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="B73" s="3" t="str">
         <f>MID(C73,2,3)</f>
-        <v>790</v>
+        <v>118</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="B74" s="3" t="str">
         <f>MID(C74,2,3)</f>
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B75" s="3" t="str">
         <f>MID(C75,2,3)</f>
-        <v>25</v>
+        <v>240</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E75" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B76" s="3" t="str">
         <f>MID(C76,2,3)</f>
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E76" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B77" s="3" t="str">
         <f>MID(C77,2,3)</f>
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E77" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B78" s="3" t="str">
         <f>MID(C78,2,3)</f>
-        <v>30</v>
+        <v>243</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E78" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="B79" s="3" t="str">
         <f>MID(C79,2,3)</f>
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E79" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="B80" s="3" t="str">
         <f>MID(C80,2,3)</f>
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E80" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B81" s="3" t="str">
         <f>MID(C81,2,3)</f>
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E81" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B82" s="3" t="str">
         <f>MID(C82,2,3)</f>
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E82" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B83" s="3" t="str">
         <f>MID(C83,2,3)</f>
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E83" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B84" s="3" t="str">
         <f>MID(C84,2,3)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E84" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="B85" s="3" t="str">
         <f>MID(C85,2,3)</f>
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E85" s="2">
         <v>2</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B86" s="3" t="str">
         <f>MID(C86,2,3)</f>
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E86" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="B87" s="3" t="str">
         <f>MID(C87,2,3)</f>
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E87" s="2">
         <v>2</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="B88" s="3" t="str">
         <f>MID(C88,2,3)</f>
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E88" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="B89" s="3" t="str">
         <f>MID(C89,2,3)</f>
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E89" s="2">
         <v>2</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="B90" s="3" t="str">
         <f>MID(C90,2,3)</f>
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E90" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B91" s="3" t="str">
         <f>MID(C91,2,3)</f>
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E91" s="2">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="B92" s="3" t="str">
         <f>MID(C92,2,3)</f>
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>122</v>
+        <v>192</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E92" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
-        <v>57</v>
-      </c>
-      <c r="B93" s="3" t="str">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4" t="str">
         <f>MID(C93,2,3)</f>
-        <v>17</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" s="2">
-        <v>4</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
-        <v>58</v>
-      </c>
-      <c r="B94" s="3" t="str">
+        <v>76</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93" s="1">
+        <v>3</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+    </row>
+    <row r="94" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4" t="str">
         <f>MID(C94,2,3)</f>
-        <v>18</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="2">
+        <v>250</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" s="1">
         <v>3</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F94" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
+    </row>
+    <row r="95" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B95" s="3" t="str">
         <f>MID(C95,2,3)</f>
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E95" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B96" s="3" t="str">
         <f>MID(C96,2,3)</f>
-        <v>102</v>
+        <v>206</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E96" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="B97" s="3" t="str">
         <f>MID(C97,2,3)</f>
-        <v>104</v>
+        <v>207</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E97" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="B98" s="3" t="str">
         <f>MID(C98,2,3)</f>
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E98" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B99" s="3" t="str">
         <f>MID(C99,2,3)</f>
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E99" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="B100" s="3" t="str">
         <f>MID(C100,2,3)</f>
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>142</v>
+        <v>208</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E100" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="B101" s="3" t="str">
         <f>MID(C101,2,3)</f>
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>144</v>
+        <v>210</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E101" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="B102" s="3" t="str">
         <f>MID(C102,2,3)</f>
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E102" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="B103" s="3" t="str">
         <f>MID(C103,2,3)</f>
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E103" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="B104" s="3" t="str">
         <f>MID(C104,2,3)</f>
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E104" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
-        <v>71</v>
-      </c>
-      <c r="B105" s="3" t="str">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="4" t="str">
         <f>MID(C105,2,3)</f>
-        <v>117</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E105" s="2">
-        <v>3</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E105" s="1">
+        <v>2</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+    </row>
+    <row r="106" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="B106" s="3" t="str">
         <f>MID(C106,2,3)</f>
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E106" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
-        <v>73</v>
-      </c>
-      <c r="B107" s="3" t="str">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="4" t="str">
         <f>MID(C107,2,3)</f>
-        <v>143</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" s="2">
-        <v>4</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
-        <v>74</v>
-      </c>
-      <c r="B108" s="3" t="str">
+        <v>53</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107" s="1">
+        <v>5</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+      <c r="Y107" s="1"/>
+    </row>
+    <row r="108" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="4" t="str">
         <f>MID(C108,2,3)</f>
-        <v>240</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E108" s="2">
-        <v>2</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
-        <v>75</v>
-      </c>
-      <c r="B109" s="3" t="str">
+        <v>54</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" s="1">
+        <v>3</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
+    </row>
+    <row r="109" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="4" t="str">
         <f>MID(C109,2,3)</f>
-        <v>241</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109" s="2">
-        <v>2</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
-        <v>76</v>
-      </c>
-      <c r="B110" s="3" t="str">
+        <v>55</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E109" s="1">
+        <v>5</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
+    </row>
+    <row r="110" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="4" t="str">
         <f>MID(C110,2,3)</f>
-        <v>242</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" s="2">
-        <v>1</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E110" s="1">
+        <v>5</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+      <c r="X110" s="1"/>
+      <c r="Y110" s="1"/>
+    </row>
+    <row r="111" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B111" s="3" t="str">
         <f>MID(C111,2,3)</f>
-        <v>243</v>
+        <v>57</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>9</v>
@@ -4227,421 +4997,437 @@
         <v>2</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B112" s="3" t="str">
         <f>MID(C112,2,3)</f>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E112" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B113" s="3" t="str">
         <f>MID(C113,2,3)</f>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>168</v>
+        <v>234</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E113" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="B114" s="3" t="str">
         <f>MID(C114,2,3)</f>
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E114" s="2">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="B115" s="3" t="str">
         <f>MID(C115,2,3)</f>
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E115" s="2">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="B116" s="3" t="str">
         <f>MID(C116,2,3)</f>
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E116" s="2">
         <v>2</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="B117" s="3" t="str">
         <f>MID(C117,2,3)</f>
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E117" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="B118" s="3" t="str">
         <f>MID(C118,2,3)</f>
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>178</v>
+        <v>244</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E118" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="B119" s="3" t="str">
         <f>MID(C119,2,3)</f>
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E119" s="2">
         <v>2</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="B120" s="3" t="str">
         <f>MID(C120,2,3)</f>
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E120" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="B121" s="3" t="str">
         <f>MID(C121,2,3)</f>
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E121" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
-        <v>88</v>
-      </c>
-      <c r="B122" s="3" t="str">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="4" t="str">
         <f>MID(C122,2,3)</f>
-        <v>71</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E122" s="2">
-        <v>2</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="1">
+        <v>20</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+      <c r="T122" s="1"/>
+      <c r="U122" s="1"/>
+      <c r="V122" s="1"/>
+      <c r="W122" s="1"/>
+      <c r="X122" s="1"/>
+      <c r="Y122" s="1"/>
+    </row>
+    <row r="123" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="B123" s="3" t="str">
         <f>MID(C123,2,3)</f>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E123" s="2">
         <v>2</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="B124" s="3" t="str">
         <f>MID(C124,2,3)</f>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E124" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="B125" s="3" t="str">
         <f>MID(C125,2,3)</f>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E125" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="B126" s="3" t="str">
         <f>MID(C126,2,3)</f>
-        <v>205</v>
+        <v>84</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E126" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="B127" s="3" t="str">
         <f>MID(C127,2,3)</f>
-        <v>206</v>
+        <v>86</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E127" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="B128" s="3" t="str">
         <f>MID(C128,2,3)</f>
-        <v>207</v>
+        <v>88</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E128" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="B129" s="3" t="str">
         <f>MID(C129,2,3)</f>
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>204</v>
+        <v>266</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E129" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="B130" s="3" t="str">
         <f>MID(C130,2,3)</f>
-        <v>210</v>
+        <v>92</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>206</v>
+        <v>268</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E130" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B131" s="3" t="str">
         <f>MID(C131,2,3)</f>
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>9</v>
@@ -4650,61 +5436,61 @@
         <v>2</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B132" s="3" t="str">
         <f>MID(C132,2,3)</f>
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E132" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="B133" s="3" t="str">
         <f>MID(C133,2,3)</f>
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E133" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="B134" s="3" t="str">
         <f>MID(C134,2,3)</f>
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>214</v>
+        <v>276</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>9</v>
@@ -4713,40 +5499,46 @@
         <v>1</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="B135" s="3" t="str">
         <f>MID(C135,2,3)</f>
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>216</v>
+        <v>278</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E135" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="B136" s="3" t="str">
         <f>MID(C136,2,3)</f>
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>9</v>
@@ -4755,655 +5547,982 @@
         <v>1</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="B137" s="3" t="str">
         <f>MID(C137,2,3)</f>
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E137" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B138" s="3" t="str">
         <f>MID(C138,2,3)</f>
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E138" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B139" s="3" t="str">
         <f>MID(C139,2,3)</f>
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E139" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B140" s="3" t="str">
         <f>MID(C140,2,3)</f>
-        <v>119</v>
+        <v>192</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>236</v>
+        <v>287</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E140" s="2">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B141" s="3" t="str">
         <f>MID(C141,2,3)</f>
-        <v>120</v>
+        <v>244</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E141" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="2">
-        <v>115</v>
-      </c>
-      <c r="B142" s="3" t="str">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="4" t="str">
         <f>MID(C142,2,3)</f>
-        <v>121</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E142" s="2">
-        <v>2</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" s="1">
+        <v>20</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
+      <c r="R142" s="1"/>
+      <c r="S142" s="1"/>
+      <c r="T142" s="1"/>
+      <c r="U142" s="1"/>
+      <c r="V142" s="1"/>
+      <c r="W142" s="1"/>
+      <c r="X142" s="1"/>
+      <c r="Y142" s="1"/>
+    </row>
+    <row r="143" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="B143" s="3" t="str">
         <f>MID(C143,2,3)</f>
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>242</v>
+        <v>293</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E143" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="B144" s="3" t="str">
         <f>MID(C144,2,3)</f>
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>244</v>
+        <v>295</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E144" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="2">
-        <v>118</v>
-      </c>
-      <c r="B145" s="3" t="str">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="4" t="str">
         <f>MID(C145,2,3)</f>
-        <v>127</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E145" s="2">
-        <v>2</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="1">
+        <v>20</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
+      <c r="R145" s="1"/>
+      <c r="S145" s="1"/>
+      <c r="T145" s="1"/>
+      <c r="U145" s="1"/>
+      <c r="V145" s="1"/>
+      <c r="W145" s="1"/>
+      <c r="X145" s="1"/>
+      <c r="Y145" s="1"/>
+    </row>
+    <row r="146" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="B146" s="3" t="str">
         <f>MID(C146,2,3)</f>
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E146" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="2">
-        <v>120</v>
-      </c>
-      <c r="B147" s="3" t="str">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="4" t="str">
         <f>MID(C147,2,3)</f>
-        <v>129</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E147" s="2">
-        <v>6</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="2">
-        <v>122</v>
-      </c>
-      <c r="B148" s="3" t="str">
+        <v>77</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" s="1">
+        <v>20</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
+      <c r="S147" s="1"/>
+      <c r="T147" s="1"/>
+      <c r="U147" s="1"/>
+      <c r="V147" s="1"/>
+      <c r="W147" s="1"/>
+      <c r="X147" s="1"/>
+      <c r="Y147" s="1"/>
+    </row>
+    <row r="148" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="4" t="str">
         <f>MID(C148,2,3)</f>
-        <v>78</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E148" s="2">
-        <v>2</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="2">
-        <v>123</v>
-      </c>
-      <c r="B149" s="3" t="str">
+        <v>79</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" s="1">
+        <v>20</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+      <c r="R148" s="1"/>
+      <c r="S148" s="1"/>
+      <c r="T148" s="1"/>
+      <c r="U148" s="1"/>
+      <c r="V148" s="1"/>
+      <c r="W148" s="1"/>
+      <c r="X148" s="1"/>
+      <c r="Y148" s="1"/>
+    </row>
+    <row r="149" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="4" t="str">
         <f>MID(C149,2,3)</f>
-        <v>80</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E149" s="2">
-        <v>1</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="2">
-        <v>124</v>
-      </c>
-      <c r="B150" s="3" t="str">
+        <v>81</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" s="1">
+        <v>20</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+      <c r="R149" s="1"/>
+      <c r="S149" s="1"/>
+      <c r="T149" s="1"/>
+      <c r="U149" s="1"/>
+      <c r="V149" s="1"/>
+      <c r="W149" s="1"/>
+      <c r="X149" s="1"/>
+      <c r="Y149" s="1"/>
+    </row>
+    <row r="150" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="4" t="str">
         <f>MID(C150,2,3)</f>
-        <v>82</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E150" s="2">
-        <v>1</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="2">
-        <v>125</v>
-      </c>
-      <c r="B151" s="3" t="str">
+        <v>83</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" s="1">
+        <v>20</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
+      <c r="T150" s="1"/>
+      <c r="U150" s="1"/>
+      <c r="V150" s="1"/>
+      <c r="W150" s="1"/>
+      <c r="X150" s="1"/>
+      <c r="Y150" s="1"/>
+    </row>
+    <row r="151" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" s="4" t="str">
         <f>MID(C151,2,3)</f>
-        <v>84</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E151" s="2">
-        <v>1</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="2">
-        <v>126</v>
-      </c>
-      <c r="B152" s="3" t="str">
+        <v>85</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" s="1">
+        <v>20</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
+      <c r="T151" s="1"/>
+      <c r="U151" s="1"/>
+      <c r="V151" s="1"/>
+      <c r="W151" s="1"/>
+      <c r="X151" s="1"/>
+      <c r="Y151" s="1"/>
+    </row>
+    <row r="152" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" s="4" t="str">
         <f>MID(C152,2,3)</f>
-        <v>86</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E152" s="2">
-        <v>2</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="2">
-        <v>127</v>
-      </c>
-      <c r="B153" s="3" t="str">
+        <v>87</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" s="1">
+        <v>20</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
+      <c r="T152" s="1"/>
+      <c r="U152" s="1"/>
+      <c r="V152" s="1"/>
+      <c r="W152" s="1"/>
+      <c r="X152" s="1"/>
+      <c r="Y152" s="1"/>
+    </row>
+    <row r="153" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" s="4" t="str">
         <f>MID(C153,2,3)</f>
-        <v>88</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E153" s="2">
-        <v>1</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="2">
-        <v>128</v>
-      </c>
-      <c r="B154" s="3" t="str">
+        <v>89</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="1">
+        <v>20</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
+      <c r="R153" s="1"/>
+      <c r="S153" s="1"/>
+      <c r="T153" s="1"/>
+      <c r="U153" s="1"/>
+      <c r="V153" s="1"/>
+      <c r="W153" s="1"/>
+      <c r="X153" s="1"/>
+      <c r="Y153" s="1"/>
+    </row>
+    <row r="154" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="4" t="str">
         <f>MID(C154,2,3)</f>
-        <v>90</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E154" s="2">
-        <v>1</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="2">
-        <v>129</v>
-      </c>
-      <c r="B155" s="3" t="str">
+        <v>91</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" s="1">
+        <v>20</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+      <c r="O154" s="1"/>
+      <c r="P154" s="1"/>
+      <c r="Q154" s="1"/>
+      <c r="R154" s="1"/>
+      <c r="S154" s="1"/>
+      <c r="T154" s="1"/>
+      <c r="U154" s="1"/>
+      <c r="V154" s="1"/>
+      <c r="W154" s="1"/>
+      <c r="X154" s="1"/>
+      <c r="Y154" s="1"/>
+    </row>
+    <row r="155" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="4" t="str">
         <f>MID(C155,2,3)</f>
-        <v>92</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E155" s="2">
-        <v>1</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="2">
-        <v>130</v>
-      </c>
-      <c r="B156" s="3" t="str">
+        <v>93</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" s="1">
+        <v>20</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="1"/>
+      <c r="S155" s="1"/>
+      <c r="T155" s="1"/>
+      <c r="U155" s="1"/>
+      <c r="V155" s="1"/>
+      <c r="W155" s="1"/>
+      <c r="X155" s="1"/>
+      <c r="Y155" s="1"/>
+    </row>
+    <row r="156" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="4" t="str">
         <f>MID(C156,2,3)</f>
-        <v>94</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E156" s="2">
-        <v>2</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="2">
-        <v>131</v>
-      </c>
-      <c r="B157" s="3" t="str">
+        <v>95</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" s="1">
+        <v>20</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
+      <c r="R156" s="1"/>
+      <c r="S156" s="1"/>
+      <c r="T156" s="1"/>
+      <c r="U156" s="1"/>
+      <c r="V156" s="1"/>
+      <c r="W156" s="1"/>
+      <c r="X156" s="1"/>
+      <c r="Y156" s="1"/>
+    </row>
+    <row r="157" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="4" t="str">
         <f>MID(C157,2,3)</f>
-        <v>96</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E157" s="2">
-        <v>2</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="2">
-        <v>132</v>
-      </c>
-      <c r="B158" s="3" t="str">
+        <v>97</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" s="1">
+        <v>20</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+      <c r="R157" s="1"/>
+      <c r="S157" s="1"/>
+      <c r="T157" s="1"/>
+      <c r="U157" s="1"/>
+      <c r="V157" s="1"/>
+      <c r="W157" s="1"/>
+      <c r="X157" s="1"/>
+      <c r="Y157" s="1"/>
+    </row>
+    <row r="158" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="4" t="str">
         <f>MID(C158,2,3)</f>
-        <v>98</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E158" s="2">
-        <v>1</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" s="1">
+        <v>20</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+      <c r="O158" s="1"/>
+      <c r="P158" s="1"/>
+      <c r="Q158" s="1"/>
+      <c r="R158" s="1"/>
+      <c r="S158" s="1"/>
+      <c r="T158" s="1"/>
+      <c r="U158" s="1"/>
+      <c r="V158" s="1"/>
+      <c r="W158" s="1"/>
+      <c r="X158" s="1"/>
+      <c r="Y158" s="1"/>
+    </row>
+    <row r="159" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="B159" s="3" t="str">
         <f>MID(C159,2,3)</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E159" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="J159" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="B160" s="3" t="str">
         <f>MID(C160,2,3)</f>
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E160" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="2">
-        <v>135</v>
-      </c>
-      <c r="B161" s="3" t="str">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" s="4" t="str">
         <f>MID(C161,2,3)</f>
-        <v>123</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E161" s="2">
-        <v>1</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="2">
-        <v>136</v>
-      </c>
-      <c r="B162" s="3" t="str">
+        <v>105</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161" s="1">
+        <v>20</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+      <c r="O161" s="1"/>
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1"/>
+      <c r="R161" s="1"/>
+      <c r="S161" s="1"/>
+      <c r="T161" s="1"/>
+      <c r="U161" s="1"/>
+      <c r="V161" s="1"/>
+      <c r="W161" s="1"/>
+      <c r="X161" s="1"/>
+      <c r="Y161" s="1"/>
+    </row>
+    <row r="162" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" s="4" t="str">
         <f>MID(C162,2,3)</f>
-        <v>124</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E162" s="2">
-        <v>1</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="2">
-        <v>137</v>
-      </c>
-      <c r="B163" s="3" t="str">
+        <v>107</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162" s="1">
+        <v>20</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+      <c r="O162" s="1"/>
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="1"/>
+      <c r="S162" s="1"/>
+      <c r="T162" s="1"/>
+      <c r="U162" s="1"/>
+      <c r="V162" s="1"/>
+      <c r="W162" s="1"/>
+      <c r="X162" s="1"/>
+      <c r="Y162" s="1"/>
+    </row>
+    <row r="163" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" s="4" t="str">
         <f>MID(C163,2,3)</f>
-        <v>125</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E163" s="2">
-        <v>1</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" s="1">
+        <v>20</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+      <c r="O163" s="1"/>
+      <c r="P163" s="1"/>
+      <c r="Q163" s="1"/>
+      <c r="R163" s="1"/>
+      <c r="S163" s="1"/>
+      <c r="T163" s="1"/>
+      <c r="U163" s="1"/>
+      <c r="V163" s="1"/>
+      <c r="W163" s="1"/>
+      <c r="X163" s="1"/>
+      <c r="Y163" s="1"/>
+    </row>
+    <row r="164" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="B164" s="3" t="str">
         <f>MID(C164,2,3)</f>
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>285</v>
+        <v>335</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E164" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="B165" s="3" t="str">
         <f>MID(C165,2,3)</f>
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>287</v>
+        <v>337</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E165" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B166" s="3" t="str">
         <f>MID(C166,2,3)</f>
-        <v>244</v>
+        <v>135</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>289</v>
+        <v>339</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E166" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="B167" s="3" t="str">
         <f>MID(C167,2,3)</f>
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>9</v>
@@ -5412,218 +6531,390 @@
         <v>20</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B168" s="3" t="str">
         <f>MID(C168,2,3)</f>
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>295</v>
+        <v>343</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E168" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="2">
-        <v>145</v>
-      </c>
-      <c r="B169" s="3" t="str">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" s="4" t="str">
         <f>MID(C169,2,3)</f>
-        <v>51</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E169" s="2">
-        <v>20</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="2">
-        <v>158</v>
-      </c>
-      <c r="B170" s="3" t="str">
+        <v>148</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E169" s="1">
+        <v>30</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+      <c r="O169" s="1"/>
+      <c r="P169" s="1"/>
+      <c r="Q169" s="1"/>
+      <c r="R169" s="1"/>
+      <c r="S169" s="1"/>
+      <c r="T169" s="1"/>
+      <c r="U169" s="1"/>
+      <c r="V169" s="1"/>
+      <c r="W169" s="1"/>
+      <c r="X169" s="1"/>
+      <c r="Y169" s="1"/>
+    </row>
+    <row r="170" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" s="4" t="str">
         <f>MID(C170,2,3)</f>
-        <v>101</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E170" s="2">
-        <v>20</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" s="1">
+        <v>30</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+      <c r="P170" s="1"/>
+      <c r="Q170" s="1"/>
+      <c r="R170" s="1"/>
+      <c r="S170" s="1"/>
+      <c r="T170" s="1"/>
+      <c r="U170" s="1"/>
+      <c r="V170" s="1"/>
+      <c r="W170" s="1"/>
+      <c r="X170" s="1"/>
+      <c r="Y170" s="1"/>
+    </row>
+    <row r="171" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B171" s="3" t="str">
         <f>MID(C171,2,3)</f>
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E171" s="2">
+        <v>30</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="4" t="str">
+        <f>MID(C172,2,3)</f>
+        <v>156</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" s="1">
+        <v>30</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+      <c r="O172" s="1"/>
+      <c r="P172" s="1"/>
+      <c r="Q172" s="1"/>
+      <c r="R172" s="1"/>
+      <c r="S172" s="1"/>
+      <c r="T172" s="1"/>
+      <c r="U172" s="1"/>
+      <c r="V172" s="1"/>
+      <c r="W172" s="1"/>
+      <c r="X172" s="1"/>
+      <c r="Y172" s="1"/>
+    </row>
+    <row r="173" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" s="4" t="str">
+        <f>MID(C173,2,3)</f>
+        <v>158</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173" s="1">
+        <v>30</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+      <c r="O173" s="1"/>
+      <c r="P173" s="1"/>
+      <c r="Q173" s="1"/>
+      <c r="R173" s="1"/>
+      <c r="S173" s="1"/>
+      <c r="T173" s="1"/>
+      <c r="U173" s="1"/>
+      <c r="V173" s="1"/>
+      <c r="W173" s="1"/>
+      <c r="X173" s="1"/>
+      <c r="Y173" s="1"/>
+    </row>
+    <row r="174" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="4" t="str">
+        <f>MID(C174,2,3)</f>
+        <v>161</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" s="1">
         <v>20</v>
       </c>
-      <c r="F171" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="2">
+      <c r="F174" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+      <c r="O174" s="1"/>
+      <c r="P174" s="1"/>
+      <c r="Q174" s="1"/>
+      <c r="R174" s="1"/>
+      <c r="S174" s="1"/>
+      <c r="T174" s="1"/>
+      <c r="U174" s="1"/>
+      <c r="V174" s="1"/>
+      <c r="W174" s="1"/>
+      <c r="X174" s="1"/>
+      <c r="Y174" s="1"/>
+    </row>
+    <row r="175" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" s="4" t="str">
+        <f>MID(C175,2,3)</f>
         <v>163</v>
       </c>
-      <c r="B172" s="3" t="str">
-        <f>MID(C172,2,3)</f>
-        <v>131</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E172" s="2">
+      <c r="C175" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175" s="1">
         <v>20</v>
       </c>
-      <c r="F172" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="2">
-        <v>164</v>
-      </c>
-      <c r="B173" s="3" t="str">
-        <f>MID(C173,2,3)</f>
-        <v>133</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E173" s="2">
+      <c r="F175" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+      <c r="O175" s="1"/>
+      <c r="P175" s="1"/>
+      <c r="Q175" s="1"/>
+      <c r="R175" s="1"/>
+      <c r="S175" s="1"/>
+      <c r="T175" s="1"/>
+      <c r="U175" s="1"/>
+      <c r="V175" s="1"/>
+      <c r="W175" s="1"/>
+      <c r="X175" s="1"/>
+      <c r="Y175" s="1"/>
+    </row>
+    <row r="176" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" s="4" t="str">
+        <f>MID(C176,2,3)</f>
+        <v>183</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176" s="1">
         <v>20</v>
       </c>
-      <c r="F173" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="2">
-        <v>165</v>
-      </c>
-      <c r="B174" s="3" t="str">
-        <f>MID(C174,2,3)</f>
-        <v>135</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E174" s="2">
+      <c r="F176" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+      <c r="P176" s="1"/>
+      <c r="Q176" s="1"/>
+      <c r="R176" s="1"/>
+      <c r="S176" s="1"/>
+      <c r="T176" s="1"/>
+      <c r="U176" s="1"/>
+      <c r="V176" s="1"/>
+      <c r="W176" s="1"/>
+      <c r="X176" s="1"/>
+      <c r="Y176" s="1"/>
+    </row>
+    <row r="177" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" s="4" t="str">
+        <f>MID(C177,2,3)</f>
+        <v>191</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" s="1">
         <v>20</v>
       </c>
-      <c r="F174" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="2">
-        <v>166</v>
-      </c>
-      <c r="B175" s="3" t="str">
-        <f>MID(C175,2,3)</f>
-        <v>137</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E175" s="2">
-        <v>20</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="2">
-        <v>167</v>
-      </c>
-      <c r="B176" s="3" t="str">
-        <f>MID(C176,2,3)</f>
-        <v>146</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E176" s="2">
-        <v>30</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="177" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="2">
-        <v>170</v>
-      </c>
-      <c r="B177" s="3" t="str">
-        <f>MID(C177,2,3)</f>
-        <v>154</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E177" s="2">
-        <v>30</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>349</v>
-      </c>
+      <c r="F177" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
+      <c r="P177" s="1"/>
+      <c r="Q177" s="1"/>
+      <c r="R177" s="1"/>
+      <c r="S177" s="1"/>
+      <c r="T177" s="1"/>
+      <c r="U177" s="1"/>
+      <c r="V177" s="1"/>
+      <c r="W177" s="1"/>
+      <c r="X177" s="1"/>
+      <c r="Y177" s="1"/>
     </row>
     <row r="178" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
@@ -5758,12 +7049,11 @@
   </sheetData>
   <autoFilter ref="A1:K1">
     <sortState ref="A2:K182">
-      <sortCondition sortBy="cellColor" ref="C2:C182" dxfId="4"/>
+      <sortCondition sortBy="cellColor" ref="C2:C182" dxfId="1"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A1:Y183">
-    <sortCondition sortBy="cellColor" ref="A1:A183" dxfId="1"/>
-    <sortCondition ref="A1:A183"/>
+  <sortState ref="A1:Y182">
+    <sortCondition ref="A1:A182"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
